--- a/Sem6/Solid_State/Expt1/day1.xlsx
+++ b/Sem6/Solid_State/Expt1/day1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amukh\OneDrive\Desktop\Lab Reports\Sem6\Solid_State\Expt1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF19B96-81B7-47A2-9590-DA8BB076A190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484AC7B6-4506-4FD8-92B6-3C1678DE76C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{DB465A30-04E5-4813-A1CE-7F198CCBEE23}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="2" xr2:uid="{DB465A30-04E5-4813-A1CE-7F198CCBEE23}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ge" sheetId="1" r:id="rId1"/>
-    <sheet name="Al" sheetId="2" r:id="rId2"/>
-    <sheet name="Si" sheetId="3" r:id="rId3"/>
+    <sheet name="Germanium" sheetId="1" r:id="rId1"/>
+    <sheet name="Aluminium" sheetId="2" r:id="rId2"/>
+    <sheet name="Silicon" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
   <si>
     <t>I (mA)</t>
   </si>
@@ -202,7 +202,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ge!$A$2:$A$37</c:f>
+              <c:f>Germanium!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="36"/>
@@ -319,7 +319,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ge!$B$2:$B$37</c:f>
+              <c:f>Germanium!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -850,7 +850,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Al!$A$2:$A$23</c:f>
+              <c:f>Aluminium!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -925,7 +925,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Al!$B$2:$B$23</c:f>
+              <c:f>Aluminium!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1388,7 +1388,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Si!$B$1</c:f>
+              <c:f>Silicon!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1421,7 +1421,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Si!$A$2:$A$22</c:f>
+              <c:f>Silicon!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1493,7 +1493,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Si!$B$2:$B$22</c:f>
+              <c:f>Silicon!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3550,15 +3550,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>449580</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3965,15 +3965,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497D802A-E8DA-4A09-879D-AED1A4F87524}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3991,104 +3991,338 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.21</v>
       </c>
       <c r="B3">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="Q3">
+        <v>0.191</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4.54</v>
+      </c>
+      <c r="S3">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.38</v>
       </c>
       <c r="B4">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N4" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="O4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Q4">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="S4">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.43</v>
       </c>
       <c r="B5">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N5" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="O5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="Q5">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="R5" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="S5">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.6</v>
       </c>
       <c r="B6">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N6" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="O6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="Q6">
+        <v>0.25</v>
+      </c>
+      <c r="R6" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="S6">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.8</v>
       </c>
       <c r="B7">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="Q7">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5.38</v>
+      </c>
+      <c r="S7">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1.06</v>
       </c>
       <c r="B8">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O8">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="Q8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="R8" s="1">
+        <v>5.65</v>
+      </c>
+      <c r="S8">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1.25</v>
       </c>
       <c r="B9">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N9" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="O9">
+        <v>9.4E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="Q9">
+        <v>0.311</v>
+      </c>
+      <c r="R9" s="1">
+        <v>5.98</v>
+      </c>
+      <c r="S9">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1.42</v>
       </c>
       <c r="B10">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N10" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="O10">
+        <v>0.11</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="Q10">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="R10" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="S10">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1.6</v>
       </c>
       <c r="B11">
         <v>0.14199999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N11" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="O11">
+        <v>0.124</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="Q11">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="R11" s="1">
+        <v>6.51</v>
+      </c>
+      <c r="S11">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1.83</v>
       </c>
       <c r="B12">
         <v>0.16200000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N12" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="O12">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="Q12">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="R12" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="S12">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2.02</v>
       </c>
       <c r="B13">
         <v>0.17799999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N13" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="O13">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P13" s="1">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="Q13">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="R13" s="1">
+        <v>7.01</v>
+      </c>
+      <c r="S13">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2.16</v>
       </c>
       <c r="B14">
         <v>0.191</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N14" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="O14">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="Q14">
+        <v>0.38</v>
+      </c>
+      <c r="R14" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="S14">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2.4</v>
       </c>
@@ -4096,7 +4330,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2.63</v>
       </c>
@@ -4284,23 +4518,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7065D3-E41D-4949-8CC9-A5E6565F3DC2}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4310,88 +4556,220 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1E-3</v>
+      </c>
+      <c r="O2">
+        <v>96.4</v>
+      </c>
+      <c r="P2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8.6</v>
       </c>
       <c r="B3">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>8.6</v>
+      </c>
+      <c r="N3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O3">
+        <v>90.8</v>
+      </c>
+      <c r="P3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13.3</v>
       </c>
       <c r="B4">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>13.3</v>
+      </c>
+      <c r="N4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O4">
+        <v>102</v>
+      </c>
+      <c r="P4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22</v>
       </c>
       <c r="B5">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>22</v>
+      </c>
+      <c r="N5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O5">
+        <v>115</v>
+      </c>
+      <c r="P5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>29.4</v>
       </c>
       <c r="B6">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>29.4</v>
+      </c>
+      <c r="N6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O6">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>35.5</v>
       </c>
       <c r="B7">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>35.5</v>
+      </c>
+      <c r="N7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="O7">
+        <v>127.3</v>
+      </c>
+      <c r="P7">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>45.8</v>
       </c>
       <c r="B8">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>45.8</v>
+      </c>
+      <c r="N8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O8">
+        <v>159</v>
+      </c>
+      <c r="P8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>56.4</v>
       </c>
       <c r="B9">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>56.4</v>
+      </c>
+      <c r="N9">
+        <v>0.02</v>
+      </c>
+      <c r="O9">
+        <v>147.5</v>
+      </c>
+      <c r="P9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>65</v>
       </c>
       <c r="B10">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>65</v>
+      </c>
+      <c r="N10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="O10">
+        <v>176.3</v>
+      </c>
+      <c r="P10">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>76.5</v>
       </c>
       <c r="B11">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>76.5</v>
+      </c>
+      <c r="N11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O11">
+        <v>183.9</v>
+      </c>
+      <c r="P11">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>85.2</v>
       </c>
       <c r="B12">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>85.2</v>
+      </c>
+      <c r="N12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O12">
+        <v>196.8</v>
+      </c>
+      <c r="P12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>96.4</v>
       </c>
@@ -4399,7 +4777,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>90.8</v>
       </c>
@@ -4407,7 +4785,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>102</v>
       </c>
@@ -4415,7 +4793,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>115</v>
       </c>
@@ -4488,10 +4866,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262C366D-13DF-4153-9F3F-CB18EB8D84B0}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4499,15 +4877,27 @@
     <col min="1" max="1" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -4517,88 +4907,214 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>0.01</v>
+      </c>
+      <c r="M2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N2">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.1</v>
       </c>
       <c r="B3">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>0.1</v>
+      </c>
+      <c r="M3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N3">
+        <v>1.21</v>
+      </c>
+      <c r="O3">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.20399999999999999</v>
       </c>
       <c r="B4">
         <v>2.7E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="M4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N4">
+        <v>1.3</v>
+      </c>
+      <c r="O4">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.30099999999999999</v>
       </c>
       <c r="B5">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="M5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.405</v>
+      </c>
+      <c r="O5">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.4</v>
       </c>
       <c r="B6">
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>0.4</v>
+      </c>
+      <c r="M6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.5</v>
       </c>
       <c r="B7">
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.607</v>
+      </c>
+      <c r="O7">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.6</v>
       </c>
       <c r="B8">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>0.6</v>
+      </c>
+      <c r="M8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.7</v>
       </c>
       <c r="B9">
         <v>7.8E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>0.7</v>
+      </c>
+      <c r="M9">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.802</v>
+      </c>
+      <c r="O9">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.8</v>
       </c>
       <c r="B10">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>0.8</v>
+      </c>
+      <c r="M10">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.901</v>
+      </c>
+      <c r="O10">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.9</v>
       </c>
       <c r="B11">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>0.9</v>
+      </c>
+      <c r="M11">
+        <v>0.1</v>
+      </c>
+      <c r="N11">
+        <v>1.992</v>
+      </c>
+      <c r="O11">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
         <v>0.106</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.1020000000000001</v>
       </c>
@@ -4606,7 +5122,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.21</v>
       </c>
@@ -4614,7 +5130,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.3</v>
       </c>
@@ -4622,7 +5138,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.405</v>
       </c>
